--- a/Experiments/AMS/Synthetic All Change/Combined.xlsx
+++ b/Experiments/AMS/Synthetic All Change/Combined.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Distributed Monitoring Thesis\Experiments\AMS\Synthetic All Change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533C1B7F-7377-48A7-95C6-3F37C7EBE88B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04EF2D7-F4AA-4762-A354-1532430D1FC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Combined Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot" sheetId="4" r:id="rId2"/>
+    <sheet name="Graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Combined Data'!$A$1:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Graph!$A$1:$G$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="36">
   <si>
     <t>LoopIndex</t>
   </si>
@@ -124,6 +125,24 @@
   <si>
     <t>Column Labels</t>
   </si>
+  <si>
+    <t>Combined_Lower0.5Upper2_Additive120800</t>
+  </si>
+  <si>
+    <t>Combined_Lower0.5Upper2_Additive240800</t>
+  </si>
+  <si>
+    <t>Combined_Lower0.5Upper2_Additive136800</t>
+  </si>
+  <si>
+    <t>Combined_Lower0.5Upper2_Additive264800</t>
+  </si>
+  <si>
+    <t>Combined_Lower0.5Upper2_Additive296800</t>
+  </si>
+  <si>
+    <t>Combined_Lower0.5Upper2_Additive200800</t>
+  </si>
 </sst>
 </file>
 
@@ -181,14 +200,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,7 +261,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
+              <c:f>Graph!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -272,17 +302,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>Graph!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -305,20 +335,35 @@
                   <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4020</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8020</c:v>
+                <c:pt idx="10">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$10</c:f>
+              <c:f>Graph!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>58680</c:v>
                 </c:pt>
@@ -341,10 +386,25 @@
                   <c:v>31887720</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>65854120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74843280</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>94992600</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>255260560</c:v>
+                <c:pt idx="10">
+                  <c:v>139154400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190484840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>215361840</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>265873440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,11 +421,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
+              <c:f>Graph!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dist L2</c:v>
+                  <c:v>Oracle Vector</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -402,16 +462,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>Graph!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -434,46 +495,76 @@
                   <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4020</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8020</c:v>
+                <c:pt idx="10">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$10</c:f>
+              <c:f>Graph!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>22964</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170476</c:v>
+                  <c:v>536600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>392582</c:v>
+                  <c:v>1251720</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>758608</c:v>
+                  <c:v>2676480</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1740780</c:v>
+                  <c:v>7141160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3481936</c:v>
+                  <c:v>6290320</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6215474</c:v>
+                  <c:v>14923760</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14681636</c:v>
+                  <c:v>29487280</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32618258</c:v>
+                  <c:v>30390120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42234120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52007200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74359040</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82750000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93833320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,11 +581,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
+              <c:f>Graph!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Value</c:v>
+                  <c:v>Dist L2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -537,10 +628,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>Graph!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -563,46 +654,76 @@
                   <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4020</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8020</c:v>
+                <c:pt idx="10">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$10</c:f>
+              <c:f>Graph!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>23528</c:v>
+                  <c:v>22964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170270</c:v>
+                  <c:v>170476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>392738</c:v>
+                  <c:v>392582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>747994</c:v>
+                  <c:v>758608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1741352</c:v>
+                  <c:v>1740780</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3443004</c:v>
+                  <c:v>3481936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6215586</c:v>
+                  <c:v>6215474</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14553174</c:v>
+                  <c:v>10741320</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32361920</c:v>
+                  <c:v>12382150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14681636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18976106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23523498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26925886</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30652800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,11 +740,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$E$1</c:f>
+              <c:f>Graph!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dist L-inf</c:v>
+                  <c:v>Value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -666,10 +787,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>Graph!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -692,46 +813,76 @@
                   <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4020</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8020</c:v>
+                <c:pt idx="10">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$E$2:$E$10</c:f>
+              <c:f>Graph!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>22962</c:v>
+                  <c:v>23528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167240</c:v>
+                  <c:v>170270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>387122</c:v>
+                  <c:v>392738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>748218</c:v>
+                  <c:v>747994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1741506</c:v>
+                  <c:v>1741352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3442998</c:v>
+                  <c:v>3443004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6215604</c:v>
+                  <c:v>6215586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14553090</c:v>
+                  <c:v>10740992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32362388</c:v>
+                  <c:v>12272816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14553174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18974826</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23330258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26714768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30416206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,11 +899,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
+              <c:f>Graph!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oracle Vector</c:v>
+                  <c:v>Dist L-inf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -795,10 +946,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>Graph!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -821,46 +972,76 @@
                   <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4020</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8020</c:v>
+                <c:pt idx="10">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$F$2:$F$10</c:f>
+              <c:f>Graph!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44040</c:v>
+                  <c:v>22962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>536600</c:v>
+                  <c:v>167240</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1251720</c:v>
+                  <c:v>387122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2676480</c:v>
+                  <c:v>748218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7141160</c:v>
+                  <c:v>1741506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6290320</c:v>
+                  <c:v>3442998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14923760</c:v>
+                  <c:v>6215604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42234120</c:v>
+                  <c:v>10645810</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105751720</c:v>
+                  <c:v>12272770</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14553090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18975166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23330458</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26714456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30179548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,7 +1058,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$G$1</c:f>
+              <c:f>Graph!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -924,10 +1105,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>Graph!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -950,20 +1131,35 @@
                   <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4020</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8020</c:v>
+                <c:pt idx="10">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$G$2:$G$10</c:f>
+              <c:f>Graph!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2560</c:v>
                 </c:pt>
@@ -986,10 +1182,25 @@
                   <c:v>258560</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>386560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>437760</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>514560</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1026560</c:v>
+                <c:pt idx="10">
+                  <c:v>642560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>770560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>847360</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>949760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,16 +2135,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1962,9 +2173,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yuval" refreshedDate="43688.961592708336" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="54" xr:uid="{580F2CAA-92FE-4030-ADF2-78D3E8CF6FE0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yuval" refreshedDate="43716.486383101852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{1441C372-E599-443D-9B57-D2B66B71F7DD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K55" sheet="Sheet1"/>
+    <worksheetSource ref="A1:K91" sheet="Combined Data"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="LoopIndex" numFmtId="0">
@@ -1981,7 +2192,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Vector Length" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="8020" count="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="8020" count="15">
         <n v="20"/>
         <n v="100"/>
         <n v="180"/>
@@ -1989,7 +2200,13 @@
         <n v="620"/>
         <n v="1220"/>
         <n v="2020"/>
+        <n v="3020"/>
+        <n v="3420"/>
         <n v="4020"/>
+        <n v="5020"/>
+        <n v="6020"/>
+        <n v="6620"/>
+        <n v="7420"/>
         <n v="8020"/>
       </sharedItems>
     </cacheField>
@@ -2000,13 +2217,13 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Bandwidth" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2560" maxValue="255260560"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2560" maxValue="265873440"/>
     </cacheField>
     <cacheField name="# Messages" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="37601"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="41924"/>
     </cacheField>
     <cacheField name="# Full Syncs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="127"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="129"/>
     </cacheField>
     <cacheField name="Lower-Bound" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6703.5" maxValue="2105122.5"/>
@@ -2027,7 +2244,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="54">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="90">
   <r>
     <n v="144"/>
     <x v="0"/>
@@ -2575,9 +2792,165 @@
     <n v="2533019.2999999998"/>
   </r>
   <r>
+    <n v="2351"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive120800"/>
+    <n v="386560"/>
+    <n v="128"/>
+    <n v="4"/>
+    <n v="803754.65"/>
+    <n v="1849109.3"/>
+    <n v="3819018.6"/>
+  </r>
+  <r>
+    <n v="2351"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive120800"/>
+    <n v="10740992"/>
+    <n v="22348"/>
+    <n v="111"/>
+    <n v="798066.45"/>
+    <n v="1849109.3"/>
+    <n v="3796265.8"/>
+  </r>
+  <r>
+    <n v="2351"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive120800"/>
+    <n v="65854120"/>
+    <n v="25156"/>
+    <n v="9"/>
+    <n v="730794.97499999998"/>
+    <n v="1849109.3"/>
+    <n v="3527179.9"/>
+  </r>
+  <r>
+    <n v="2351"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive120800"/>
+    <n v="29487280"/>
+    <n v="11039"/>
+    <n v="4"/>
+    <n v="731760.1"/>
+    <n v="1849109.3"/>
+    <n v="3531040.4"/>
+  </r>
+  <r>
+    <n v="2351"/>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive120800"/>
+    <n v="10645810"/>
+    <n v="24043"/>
+    <n v="110"/>
+    <n v="765564"/>
+    <n v="1849109.3"/>
+    <n v="3666256"/>
+  </r>
+  <r>
+    <n v="2351"/>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive120800"/>
+    <n v="10741320"/>
+    <n v="22771"/>
+    <n v="111"/>
+    <n v="775977"/>
+    <n v="1849109.3"/>
+    <n v="3707908"/>
+  </r>
+  <r>
+    <n v="2621"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive136800"/>
+    <n v="437760"/>
+    <n v="128"/>
+    <n v="4"/>
+    <n v="905718.07499999995"/>
+    <n v="2085036.15"/>
+    <n v="4306872.3"/>
+  </r>
+  <r>
+    <n v="2621"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive136800"/>
+    <n v="30390120"/>
+    <n v="10134"/>
+    <n v="4"/>
+    <n v="818614.52500000002"/>
+    <n v="2085036.15"/>
+    <n v="3958458.1"/>
+  </r>
+  <r>
+    <n v="2621"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive136800"/>
+    <n v="74843280"/>
+    <n v="25260"/>
+    <n v="9"/>
+    <n v="755975.42500000005"/>
+    <n v="2085036.15"/>
+    <n v="3707901.7"/>
+  </r>
+  <r>
+    <n v="2621"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive136800"/>
+    <n v="12272816"/>
+    <n v="24308"/>
+    <n v="112"/>
+    <n v="873610.97499999998"/>
+    <n v="2085036.15"/>
+    <n v="4178443.9"/>
+  </r>
+  <r>
+    <n v="2621"/>
+    <x v="5"/>
+    <x v="8"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive136800"/>
+    <n v="12382150"/>
+    <n v="24290"/>
+    <n v="113"/>
+    <n v="877254.15"/>
+    <n v="2085036.15"/>
+    <n v="4193016.6"/>
+  </r>
+  <r>
+    <n v="2621"/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive136800"/>
+    <n v="12272770"/>
+    <n v="24266"/>
+    <n v="112"/>
+    <n v="875145.375"/>
+    <n v="2085036.15"/>
+    <n v="4184581.5"/>
+  </r>
+  <r>
     <n v="3074"/>
     <x v="1"/>
-    <x v="7"/>
+    <x v="9"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive160800"/>
     <n v="514560"/>
@@ -2590,7 +2963,7 @@
   <r>
     <n v="3074"/>
     <x v="3"/>
-    <x v="7"/>
+    <x v="9"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive160800"/>
     <n v="94992600"/>
@@ -2603,7 +2976,7 @@
   <r>
     <n v="3074"/>
     <x v="0"/>
-    <x v="7"/>
+    <x v="9"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive160800"/>
     <n v="14553174"/>
@@ -2616,7 +2989,7 @@
   <r>
     <n v="3074"/>
     <x v="2"/>
-    <x v="7"/>
+    <x v="9"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive160800"/>
     <n v="42234120"/>
@@ -2629,7 +3002,7 @@
   <r>
     <n v="3074"/>
     <x v="5"/>
-    <x v="7"/>
+    <x v="9"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive160800"/>
     <n v="14681636"/>
@@ -2642,7 +3015,7 @@
   <r>
     <n v="3074"/>
     <x v="4"/>
-    <x v="7"/>
+    <x v="9"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive160800"/>
     <n v="14553090"/>
@@ -2653,9 +3026,321 @@
     <n v="4946017"/>
   </r>
   <r>
+    <n v="3844"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive200800"/>
+    <n v="642560"/>
+    <n v="128"/>
+    <n v="4"/>
+    <n v="1320599.8500000001"/>
+    <n v="3042799.7"/>
+    <n v="6286399.4000000004"/>
+  </r>
+  <r>
+    <n v="3844"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive200800"/>
+    <n v="52007200"/>
+    <n v="11875"/>
+    <n v="4"/>
+    <n v="1226797.55"/>
+    <n v="3042799.7"/>
+    <n v="5911190.2000000002"/>
+  </r>
+  <r>
+    <n v="3844"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive200800"/>
+    <n v="18974826"/>
+    <n v="29193"/>
+    <n v="118"/>
+    <n v="1298282.45"/>
+    <n v="3042799.7"/>
+    <n v="6197129.7999999998"/>
+  </r>
+  <r>
+    <n v="3844"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive200800"/>
+    <n v="139154400"/>
+    <n v="32271"/>
+    <n v="9"/>
+    <n v="991062.55"/>
+    <n v="3042799.7"/>
+    <n v="4968250.2"/>
+  </r>
+  <r>
+    <n v="3844"/>
+    <x v="4"/>
+    <x v="10"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive200800"/>
+    <n v="18975166"/>
+    <n v="29552"/>
+    <n v="118"/>
+    <n v="1301579.95"/>
+    <n v="3042799.7"/>
+    <n v="6210319.7999999998"/>
+  </r>
+  <r>
+    <n v="3844"/>
+    <x v="5"/>
+    <x v="10"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive200800"/>
+    <n v="18976106"/>
+    <n v="30718"/>
+    <n v="118"/>
+    <n v="1295951.7749999999"/>
+    <n v="3042799.7"/>
+    <n v="6187807.0999999996"/>
+  </r>
+  <r>
+    <n v="4395"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive240800"/>
+    <n v="770560"/>
+    <n v="128"/>
+    <n v="4"/>
+    <n v="1580685.375"/>
+    <n v="3642970.75"/>
+    <n v="7526741.5"/>
+  </r>
+  <r>
+    <n v="4395"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive240800"/>
+    <n v="190484840"/>
+    <n v="36777"/>
+    <n v="9"/>
+    <n v="1491823.65"/>
+    <n v="3642970.75"/>
+    <n v="7171294.5999999996"/>
+  </r>
+  <r>
+    <n v="4395"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive240800"/>
+    <n v="23330258"/>
+    <n v="31202"/>
+    <n v="121"/>
+    <n v="1531962.8"/>
+    <n v="3642970.75"/>
+    <n v="7331851.2000000002"/>
+  </r>
+  <r>
+    <n v="4395"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive240800"/>
+    <n v="74359040"/>
+    <n v="14158"/>
+    <n v="4"/>
+    <n v="1564993.4"/>
+    <n v="3642970.75"/>
+    <n v="7463973.5999999996"/>
+  </r>
+  <r>
+    <n v="4395"/>
+    <x v="5"/>
+    <x v="11"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive240800"/>
+    <n v="23523498"/>
+    <n v="31968"/>
+    <n v="122"/>
+    <n v="1566364.425"/>
+    <n v="3642970.75"/>
+    <n v="7469457.7000000002"/>
+  </r>
+  <r>
+    <n v="4395"/>
+    <x v="4"/>
+    <x v="11"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive240800"/>
+    <n v="23330458"/>
+    <n v="31370"/>
+    <n v="121"/>
+    <n v="1538430.1"/>
+    <n v="3642970.75"/>
+    <n v="7357720.4000000004"/>
+  </r>
+  <r>
+    <n v="5026"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive264800"/>
+    <n v="847360"/>
+    <n v="128"/>
+    <n v="4"/>
+    <n v="1737920.7"/>
+    <n v="4005441.4"/>
+    <n v="8275682.7999999998"/>
+  </r>
+  <r>
+    <n v="5026"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive264800"/>
+    <n v="26714768"/>
+    <n v="33896"/>
+    <n v="126"/>
+    <n v="1678898.425"/>
+    <n v="4005441.4"/>
+    <n v="8039593.7000000002"/>
+  </r>
+  <r>
+    <n v="5026"/>
+    <x v="3"/>
+    <x v="12"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive264800"/>
+    <n v="215361840"/>
+    <n v="38146"/>
+    <n v="10"/>
+    <n v="1368638.925"/>
+    <n v="4005441.4"/>
+    <n v="6798555.7000000002"/>
+  </r>
+  <r>
+    <n v="5026"/>
+    <x v="2"/>
+    <x v="12"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive264800"/>
+    <n v="82750000"/>
+    <n v="14405"/>
+    <n v="4"/>
+    <n v="1689333.325"/>
+    <n v="4005441.4"/>
+    <n v="8081333.2999999998"/>
+  </r>
+  <r>
+    <n v="5026"/>
+    <x v="5"/>
+    <x v="12"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive264800"/>
+    <n v="26925886"/>
+    <n v="33114"/>
+    <n v="127"/>
+    <n v="1687089.925"/>
+    <n v="4005441.4"/>
+    <n v="8072359.7000000002"/>
+  </r>
+  <r>
+    <n v="5026"/>
+    <x v="4"/>
+    <x v="12"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive264800"/>
+    <n v="26714456"/>
+    <n v="33589"/>
+    <n v="126"/>
+    <n v="1690298.5249999999"/>
+    <n v="4005441.4"/>
+    <n v="8085194.0999999996"/>
+  </r>
+  <r>
+    <n v="5501"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive296800"/>
+    <n v="949760"/>
+    <n v="128"/>
+    <n v="4"/>
+    <n v="1951191.325"/>
+    <n v="4495982.6500000004"/>
+    <n v="9288765.3000000007"/>
+  </r>
+  <r>
+    <n v="5501"/>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive296800"/>
+    <n v="30416206"/>
+    <n v="35218"/>
+    <n v="128"/>
+    <n v="1915116.55"/>
+    <n v="4495982.6500000004"/>
+    <n v="9144466.1999999993"/>
+  </r>
+  <r>
+    <n v="5501"/>
+    <x v="3"/>
+    <x v="13"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive296800"/>
+    <n v="265873440"/>
+    <n v="41924"/>
+    <n v="9"/>
+    <n v="1667553.175"/>
+    <n v="4495982.6500000004"/>
+    <n v="8154212.7000000002"/>
+  </r>
+  <r>
+    <n v="5501"/>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive296800"/>
+    <n v="93833320"/>
+    <n v="14552"/>
+    <n v="4"/>
+    <n v="1928520.6"/>
+    <n v="4495982.6500000004"/>
+    <n v="9198082.4000000004"/>
+  </r>
+  <r>
+    <n v="5501"/>
+    <x v="5"/>
+    <x v="13"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive296800"/>
+    <n v="30652800"/>
+    <n v="34278"/>
+    <n v="129"/>
+    <n v="1909815"/>
+    <n v="4495982.6500000004"/>
+    <n v="9123260"/>
+  </r>
+  <r>
+    <n v="5501"/>
+    <x v="4"/>
+    <x v="13"/>
+    <n v="16"/>
+    <s v="Combined_Lower0.5Upper2_Additive296800"/>
+    <n v="30179548"/>
+    <n v="36096"/>
+    <n v="127"/>
+    <n v="1915116.55"/>
+    <n v="4495982.6500000004"/>
+    <n v="9144466.1999999993"/>
+  </r>
+  <r>
     <n v="5852"/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="14"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive320800"/>
     <n v="1026560"/>
@@ -2668,7 +3353,7 @@
   <r>
     <n v="5852"/>
     <x v="3"/>
-    <x v="8"/>
+    <x v="14"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive320800"/>
     <n v="255260560"/>
@@ -2681,7 +3366,7 @@
   <r>
     <n v="5852"/>
     <x v="0"/>
-    <x v="8"/>
+    <x v="14"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive320800"/>
     <n v="32361920"/>
@@ -2694,7 +3379,7 @@
   <r>
     <n v="5852"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="14"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive320800"/>
     <n v="105751720"/>
@@ -2707,7 +3392,7 @@
   <r>
     <n v="5852"/>
     <x v="4"/>
-    <x v="8"/>
+    <x v="14"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive320800"/>
     <n v="32362388"/>
@@ -2720,7 +3405,7 @@
   <r>
     <n v="5852"/>
     <x v="5"/>
-    <x v="8"/>
+    <x v="14"/>
     <n v="16"/>
     <s v="Combined_Lower0.5Upper2_Additive320800"/>
     <n v="32618258"/>
@@ -2734,8 +3419,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74FF89EA-7F51-4156-B604-91051B2B9EAF}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C07ECDC3-A844-404A-9AFE-B815AF6E8010}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -2749,8 +3434,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="16">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2760,6 +3445,12 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2775,7 +3466,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
@@ -2802,6 +3493,24 @@
     </i>
     <i>
       <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -3110,330 +3819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F3144-EC4D-414A-B81D-285FDF61317D}">
-  <dimension ref="A3:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2">
-        <v>22964</v>
-      </c>
-      <c r="C5" s="2">
-        <v>22962</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2560</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44040</v>
-      </c>
-      <c r="F5" s="2">
-        <v>23528</v>
-      </c>
-      <c r="G5" s="2">
-        <v>58680</v>
-      </c>
-      <c r="H5" s="2">
-        <v>174734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2">
-        <v>170476</v>
-      </c>
-      <c r="C6" s="2">
-        <v>167240</v>
-      </c>
-      <c r="D6" s="2">
-        <v>12800</v>
-      </c>
-      <c r="E6" s="2">
-        <v>536600</v>
-      </c>
-      <c r="F6" s="2">
-        <v>170270</v>
-      </c>
-      <c r="G6" s="2">
-        <v>730200</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1787586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>180</v>
-      </c>
-      <c r="B7" s="2">
-        <v>392582</v>
-      </c>
-      <c r="C7" s="2">
-        <v>387122</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23040</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1251720</v>
-      </c>
-      <c r="F7" s="2">
-        <v>392738</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1943640</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4390842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>340</v>
-      </c>
-      <c r="B8" s="2">
-        <v>758608</v>
-      </c>
-      <c r="C8" s="2">
-        <v>748218</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43520</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2676480</v>
-      </c>
-      <c r="F8" s="2">
-        <v>747994</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4623320</v>
-      </c>
-      <c r="H8" s="2">
-        <v>9598140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>620</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1740780</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1741506</v>
-      </c>
-      <c r="D9" s="2">
-        <v>79360</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7141160</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1741352</v>
-      </c>
-      <c r="G9" s="2">
-        <v>13400680</v>
-      </c>
-      <c r="H9" s="2">
-        <v>25844838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1220</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3481936</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3442998</v>
-      </c>
-      <c r="D10" s="2">
-        <v>156160</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6290320</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3443004</v>
-      </c>
-      <c r="G10" s="2">
-        <v>16511480</v>
-      </c>
-      <c r="H10" s="2">
-        <v>33325898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6215474</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6215604</v>
-      </c>
-      <c r="D11" s="2">
-        <v>258560</v>
-      </c>
-      <c r="E11" s="2">
-        <v>14923760</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6215586</v>
-      </c>
-      <c r="G11" s="2">
-        <v>31887720</v>
-      </c>
-      <c r="H11" s="2">
-        <v>65716704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>4020</v>
-      </c>
-      <c r="B12" s="2">
-        <v>14681636</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14553090</v>
-      </c>
-      <c r="D12" s="2">
-        <v>514560</v>
-      </c>
-      <c r="E12" s="2">
-        <v>42234120</v>
-      </c>
-      <c r="F12" s="2">
-        <v>14553174</v>
-      </c>
-      <c r="G12" s="2">
-        <v>94992600</v>
-      </c>
-      <c r="H12" s="2">
-        <v>181529180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>8020</v>
-      </c>
-      <c r="B13" s="2">
-        <v>32618258</v>
-      </c>
-      <c r="C13" s="2">
-        <v>32362388</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1026560</v>
-      </c>
-      <c r="E13" s="2">
-        <v>105751720</v>
-      </c>
-      <c r="F13" s="2">
-        <v>32361920</v>
-      </c>
-      <c r="G13" s="2">
-        <v>255260560</v>
-      </c>
-      <c r="H13" s="2">
-        <v>459381406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2">
-        <v>60082714</v>
-      </c>
-      <c r="C14" s="2">
-        <v>59641128</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2117120</v>
-      </c>
-      <c r="E14" s="2">
-        <v>180849920</v>
-      </c>
-      <c r="F14" s="2">
-        <v>59649566</v>
-      </c>
-      <c r="G14" s="2">
-        <v>419408880</v>
-      </c>
-      <c r="H14" s="2">
-        <v>781749328</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4945,22 +5335,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3074</v>
+        <v>2351</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44">
-        <v>4020</v>
+        <v>3020</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>514560</v>
+        <v>386560</v>
       </c>
       <c r="G44">
         <v>128</v>
@@ -4969,208 +5359,208 @@
         <v>4</v>
       </c>
       <c r="I44">
-        <v>1062647.9750000001</v>
+        <v>803754.65</v>
       </c>
       <c r="J44">
-        <v>2446895.9500000002</v>
+        <v>1849109.3</v>
       </c>
       <c r="K44">
-        <v>5054591.9000000004</v>
+        <v>3819018.6</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3074</v>
+        <v>2351</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>4020</v>
+        <v>3020</v>
       </c>
       <c r="D45">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F45">
-        <v>94992600</v>
+        <v>10740992</v>
       </c>
       <c r="G45">
-        <v>27462</v>
+        <v>22348</v>
       </c>
       <c r="H45">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="I45">
-        <v>865638.22499999998</v>
+        <v>798066.45</v>
       </c>
       <c r="J45">
-        <v>2446895.9500000002</v>
+        <v>1849109.3</v>
       </c>
       <c r="K45">
-        <v>4266552.9000000004</v>
+        <v>3796265.8</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3074</v>
+        <v>2351</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>4020</v>
+        <v>3020</v>
       </c>
       <c r="D46">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F46">
-        <v>14553174</v>
+        <v>65854120</v>
       </c>
       <c r="G46">
-        <v>25969</v>
+        <v>25156</v>
       </c>
       <c r="H46">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="I46">
-        <v>1035504.25</v>
+        <v>730794.97499999998</v>
       </c>
       <c r="J46">
-        <v>2446895.9500000002</v>
+        <v>1849109.3</v>
       </c>
       <c r="K46">
-        <v>4946017</v>
+        <v>3527179.9</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3074</v>
+        <v>2351</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47">
-        <v>4020</v>
+        <v>3020</v>
       </c>
       <c r="D47">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F47">
-        <v>42234120</v>
+        <v>29487280</v>
       </c>
       <c r="G47">
-        <v>11968</v>
+        <v>11039</v>
       </c>
       <c r="H47">
         <v>4</v>
       </c>
       <c r="I47">
-        <v>1012042.575</v>
+        <v>731760.1</v>
       </c>
       <c r="J47">
-        <v>2446895.9500000002</v>
+        <v>1849109.3</v>
       </c>
       <c r="K47">
-        <v>4852170.3</v>
+        <v>3531040.4</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3074</v>
+        <v>2351</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>4020</v>
+        <v>3020</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F48">
-        <v>14681636</v>
+        <v>10645810</v>
       </c>
       <c r="G48">
-        <v>25862</v>
+        <v>24043</v>
       </c>
       <c r="H48">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I48">
-        <v>1026340.775</v>
+        <v>765564</v>
       </c>
       <c r="J48">
-        <v>2446895.9500000002</v>
+        <v>1849109.3</v>
       </c>
       <c r="K48">
-        <v>4909363.0999999996</v>
+        <v>3666256</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3074</v>
+        <v>2351</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>4020</v>
+        <v>3020</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F49">
-        <v>14553090</v>
+        <v>10741320</v>
       </c>
       <c r="G49">
-        <v>25893</v>
+        <v>22771</v>
       </c>
       <c r="H49">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I49">
-        <v>1035504.25</v>
+        <v>775977</v>
       </c>
       <c r="J49">
-        <v>2446895.9500000002</v>
+        <v>1849109.3</v>
       </c>
       <c r="K49">
-        <v>4946017</v>
+        <v>3707908</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5852</v>
+        <v>2621</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
       <c r="C50">
-        <v>8020</v>
+        <v>3420</v>
       </c>
       <c r="D50">
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F50">
-        <v>1026560</v>
+        <v>437760</v>
       </c>
       <c r="G50">
         <v>128</v>
@@ -5179,193 +5569,1453 @@
         <v>4</v>
       </c>
       <c r="I50">
-        <v>2105122.5</v>
+        <v>905718.07499999995</v>
       </c>
       <c r="J50">
-        <v>4851845</v>
+        <v>2085036.15</v>
       </c>
       <c r="K50">
-        <v>10024490</v>
+        <v>4306872.3</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5852</v>
+        <v>2621</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>8020</v>
+        <v>3420</v>
       </c>
       <c r="D51">
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F51">
-        <v>255260560</v>
+        <v>30390120</v>
       </c>
       <c r="G51">
-        <v>37601</v>
+        <v>10134</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1796365.7250000001</v>
+        <v>818614.52500000002</v>
       </c>
       <c r="J51">
-        <v>4851845</v>
+        <v>2085036.15</v>
       </c>
       <c r="K51">
-        <v>8789462.9000000004</v>
+        <v>3958458.1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5852</v>
+        <v>2621</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>8020</v>
+        <v>3420</v>
       </c>
       <c r="D52">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F52">
-        <v>32361920</v>
+        <v>74843280</v>
       </c>
       <c r="G52">
-        <v>36776</v>
+        <v>25260</v>
       </c>
       <c r="H52">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="I52">
-        <v>2092593.8</v>
+        <v>755975.42500000005</v>
       </c>
       <c r="J52">
-        <v>4851845</v>
+        <v>2085036.15</v>
       </c>
       <c r="K52">
-        <v>9974375.1999999993</v>
+        <v>3707901.7</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5852</v>
+        <v>2621</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>8020</v>
+        <v>3420</v>
       </c>
       <c r="D53">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F53">
-        <v>105751720</v>
+        <v>12272816</v>
       </c>
       <c r="G53">
-        <v>15161</v>
+        <v>24308</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="I53">
-        <v>2082868.4</v>
+        <v>873610.97499999998</v>
       </c>
       <c r="J53">
-        <v>4851845</v>
+        <v>2085036.15</v>
       </c>
       <c r="K53">
-        <v>9935473.5999999996</v>
+        <v>4178443.9</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5852</v>
+        <v>2621</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>8020</v>
+        <v>3420</v>
       </c>
       <c r="D54">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F54">
-        <v>32362388</v>
+        <v>12382150</v>
       </c>
       <c r="G54">
-        <v>37344</v>
+        <v>24290</v>
       </c>
       <c r="H54">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I54">
-        <v>2079064.1</v>
+        <v>877254.15</v>
       </c>
       <c r="J54">
-        <v>4851845</v>
+        <v>2085036.15</v>
       </c>
       <c r="K54">
-        <v>9920256.4000000004</v>
+        <v>4193016.6</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>2621</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>3420</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55">
+        <v>12272770</v>
+      </c>
+      <c r="G55">
+        <v>24266</v>
+      </c>
+      <c r="H55">
+        <v>112</v>
+      </c>
+      <c r="I55">
+        <v>875145.375</v>
+      </c>
+      <c r="J55">
+        <v>2085036.15</v>
+      </c>
+      <c r="K55">
+        <v>4184581.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3074</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>4020</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56">
+        <v>514560</v>
+      </c>
+      <c r="G56">
+        <v>128</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>1062647.9750000001</v>
+      </c>
+      <c r="J56">
+        <v>2446895.9500000002</v>
+      </c>
+      <c r="K56">
+        <v>5054591.9000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3074</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>4020</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57">
+        <v>94992600</v>
+      </c>
+      <c r="G57">
+        <v>27462</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="I57">
+        <v>865638.22499999998</v>
+      </c>
+      <c r="J57">
+        <v>2446895.9500000002</v>
+      </c>
+      <c r="K57">
+        <v>4266552.9000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3074</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>4020</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58">
+        <v>14553174</v>
+      </c>
+      <c r="G58">
+        <v>25969</v>
+      </c>
+      <c r="H58">
+        <v>113</v>
+      </c>
+      <c r="I58">
+        <v>1035504.25</v>
+      </c>
+      <c r="J58">
+        <v>2446895.9500000002</v>
+      </c>
+      <c r="K58">
+        <v>4946017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3074</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>4020</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59">
+        <v>42234120</v>
+      </c>
+      <c r="G59">
+        <v>11968</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>1012042.575</v>
+      </c>
+      <c r="J59">
+        <v>2446895.9500000002</v>
+      </c>
+      <c r="K59">
+        <v>4852170.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3074</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>4020</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60">
+        <v>14681636</v>
+      </c>
+      <c r="G60">
+        <v>25862</v>
+      </c>
+      <c r="H60">
+        <v>114</v>
+      </c>
+      <c r="I60">
+        <v>1026340.775</v>
+      </c>
+      <c r="J60">
+        <v>2446895.9500000002</v>
+      </c>
+      <c r="K60">
+        <v>4909363.0999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3074</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>4020</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61">
+        <v>14553090</v>
+      </c>
+      <c r="G61">
+        <v>25893</v>
+      </c>
+      <c r="H61">
+        <v>113</v>
+      </c>
+      <c r="I61">
+        <v>1035504.25</v>
+      </c>
+      <c r="J61">
+        <v>2446895.9500000002</v>
+      </c>
+      <c r="K61">
+        <v>4946017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3844</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>5020</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62">
+        <v>642560</v>
+      </c>
+      <c r="G62">
+        <v>128</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>1320599.8500000001</v>
+      </c>
+      <c r="J62">
+        <v>3042799.7</v>
+      </c>
+      <c r="K62">
+        <v>6286399.4000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3844</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>5020</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63">
+        <v>52007200</v>
+      </c>
+      <c r="G63">
+        <v>11875</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>1226797.55</v>
+      </c>
+      <c r="J63">
+        <v>3042799.7</v>
+      </c>
+      <c r="K63">
+        <v>5911190.2000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3844</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>5020</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64">
+        <v>18974826</v>
+      </c>
+      <c r="G64">
+        <v>29193</v>
+      </c>
+      <c r="H64">
+        <v>118</v>
+      </c>
+      <c r="I64">
+        <v>1298282.45</v>
+      </c>
+      <c r="J64">
+        <v>3042799.7</v>
+      </c>
+      <c r="K64">
+        <v>6197129.7999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3844</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>5020</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65">
+        <v>139154400</v>
+      </c>
+      <c r="G65">
+        <v>32271</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>991062.55</v>
+      </c>
+      <c r="J65">
+        <v>3042799.7</v>
+      </c>
+      <c r="K65">
+        <v>4968250.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3844</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>5020</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66">
+        <v>18975166</v>
+      </c>
+      <c r="G66">
+        <v>29552</v>
+      </c>
+      <c r="H66">
+        <v>118</v>
+      </c>
+      <c r="I66">
+        <v>1301579.95</v>
+      </c>
+      <c r="J66">
+        <v>3042799.7</v>
+      </c>
+      <c r="K66">
+        <v>6210319.7999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3844</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>5020</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67">
+        <v>18976106</v>
+      </c>
+      <c r="G67">
+        <v>30718</v>
+      </c>
+      <c r="H67">
+        <v>118</v>
+      </c>
+      <c r="I67">
+        <v>1295951.7749999999</v>
+      </c>
+      <c r="J67">
+        <v>3042799.7</v>
+      </c>
+      <c r="K67">
+        <v>6187807.0999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4395</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>6020</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68">
+        <v>770560</v>
+      </c>
+      <c r="G68">
+        <v>128</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>1580685.375</v>
+      </c>
+      <c r="J68">
+        <v>3642970.75</v>
+      </c>
+      <c r="K68">
+        <v>7526741.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4395</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>6020</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69">
+        <v>190484840</v>
+      </c>
+      <c r="G69">
+        <v>36777</v>
+      </c>
+      <c r="H69">
+        <v>9</v>
+      </c>
+      <c r="I69">
+        <v>1491823.65</v>
+      </c>
+      <c r="J69">
+        <v>3642970.75</v>
+      </c>
+      <c r="K69">
+        <v>7171294.5999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4395</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>6020</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70">
+        <v>23330258</v>
+      </c>
+      <c r="G70">
+        <v>31202</v>
+      </c>
+      <c r="H70">
+        <v>121</v>
+      </c>
+      <c r="I70">
+        <v>1531962.8</v>
+      </c>
+      <c r="J70">
+        <v>3642970.75</v>
+      </c>
+      <c r="K70">
+        <v>7331851.2000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4395</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>6020</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71">
+        <v>74359040</v>
+      </c>
+      <c r="G71">
+        <v>14158</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>1564993.4</v>
+      </c>
+      <c r="J71">
+        <v>3642970.75</v>
+      </c>
+      <c r="K71">
+        <v>7463973.5999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4395</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>6020</v>
+      </c>
+      <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72">
+        <v>23523498</v>
+      </c>
+      <c r="G72">
+        <v>31968</v>
+      </c>
+      <c r="H72">
+        <v>122</v>
+      </c>
+      <c r="I72">
+        <v>1566364.425</v>
+      </c>
+      <c r="J72">
+        <v>3642970.75</v>
+      </c>
+      <c r="K72">
+        <v>7469457.7000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4395</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>6020</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73">
+        <v>23330458</v>
+      </c>
+      <c r="G73">
+        <v>31370</v>
+      </c>
+      <c r="H73">
+        <v>121</v>
+      </c>
+      <c r="I73">
+        <v>1538430.1</v>
+      </c>
+      <c r="J73">
+        <v>3642970.75</v>
+      </c>
+      <c r="K73">
+        <v>7357720.4000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5026</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>6620</v>
+      </c>
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74">
+        <v>847360</v>
+      </c>
+      <c r="G74">
+        <v>128</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>1737920.7</v>
+      </c>
+      <c r="J74">
+        <v>4005441.4</v>
+      </c>
+      <c r="K74">
+        <v>8275682.7999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5026</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>6620</v>
+      </c>
+      <c r="D75">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75">
+        <v>26714768</v>
+      </c>
+      <c r="G75">
+        <v>33896</v>
+      </c>
+      <c r="H75">
+        <v>126</v>
+      </c>
+      <c r="I75">
+        <v>1678898.425</v>
+      </c>
+      <c r="J75">
+        <v>4005441.4</v>
+      </c>
+      <c r="K75">
+        <v>8039593.7000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5026</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>6620</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76">
+        <v>215361840</v>
+      </c>
+      <c r="G76">
+        <v>38146</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>1368638.925</v>
+      </c>
+      <c r="J76">
+        <v>4005441.4</v>
+      </c>
+      <c r="K76">
+        <v>6798555.7000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5026</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>6620</v>
+      </c>
+      <c r="D77">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77">
+        <v>82750000</v>
+      </c>
+      <c r="G77">
+        <v>14405</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>1689333.325</v>
+      </c>
+      <c r="J77">
+        <v>4005441.4</v>
+      </c>
+      <c r="K77">
+        <v>8081333.2999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5026</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78">
+        <v>6620</v>
+      </c>
+      <c r="D78">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78">
+        <v>26925886</v>
+      </c>
+      <c r="G78">
+        <v>33114</v>
+      </c>
+      <c r="H78">
+        <v>127</v>
+      </c>
+      <c r="I78">
+        <v>1687089.925</v>
+      </c>
+      <c r="J78">
+        <v>4005441.4</v>
+      </c>
+      <c r="K78">
+        <v>8072359.7000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5026</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>6620</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79">
+        <v>26714456</v>
+      </c>
+      <c r="G79">
+        <v>33589</v>
+      </c>
+      <c r="H79">
+        <v>126</v>
+      </c>
+      <c r="I79">
+        <v>1690298.5249999999</v>
+      </c>
+      <c r="J79">
+        <v>4005441.4</v>
+      </c>
+      <c r="K79">
+        <v>8085194.0999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5501</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>7420</v>
+      </c>
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80">
+        <v>949760</v>
+      </c>
+      <c r="G80">
+        <v>128</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>1951191.325</v>
+      </c>
+      <c r="J80">
+        <v>4495982.6500000004</v>
+      </c>
+      <c r="K80">
+        <v>9288765.3000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5501</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>7420</v>
+      </c>
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81">
+        <v>30416206</v>
+      </c>
+      <c r="G81">
+        <v>35218</v>
+      </c>
+      <c r="H81">
+        <v>128</v>
+      </c>
+      <c r="I81">
+        <v>1915116.55</v>
+      </c>
+      <c r="J81">
+        <v>4495982.6500000004</v>
+      </c>
+      <c r="K81">
+        <v>9144466.1999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5501</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>7420</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82">
+        <v>265873440</v>
+      </c>
+      <c r="G82">
+        <v>41924</v>
+      </c>
+      <c r="H82">
+        <v>9</v>
+      </c>
+      <c r="I82">
+        <v>1667553.175</v>
+      </c>
+      <c r="J82">
+        <v>4495982.6500000004</v>
+      </c>
+      <c r="K82">
+        <v>8154212.7000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5501</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>7420</v>
+      </c>
+      <c r="D83">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83">
+        <v>93833320</v>
+      </c>
+      <c r="G83">
+        <v>14552</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>1928520.6</v>
+      </c>
+      <c r="J83">
+        <v>4495982.6500000004</v>
+      </c>
+      <c r="K83">
+        <v>9198082.4000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5501</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84">
+        <v>7420</v>
+      </c>
+      <c r="D84">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84">
+        <v>30652800</v>
+      </c>
+      <c r="G84">
+        <v>34278</v>
+      </c>
+      <c r="H84">
+        <v>129</v>
+      </c>
+      <c r="I84">
+        <v>1909815</v>
+      </c>
+      <c r="J84">
+        <v>4495982.6500000004</v>
+      </c>
+      <c r="K84">
+        <v>9123260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5501</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>7420</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85">
+        <v>30179548</v>
+      </c>
+      <c r="G85">
+        <v>36096</v>
+      </c>
+      <c r="H85">
+        <v>127</v>
+      </c>
+      <c r="I85">
+        <v>1915116.55</v>
+      </c>
+      <c r="J85">
+        <v>4495982.6500000004</v>
+      </c>
+      <c r="K85">
+        <v>9144466.1999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>5852</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>8020</v>
+      </c>
+      <c r="D86">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86">
+        <v>1026560</v>
+      </c>
+      <c r="G86">
+        <v>128</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>2105122.5</v>
+      </c>
+      <c r="J86">
+        <v>4851845</v>
+      </c>
+      <c r="K86">
+        <v>10024490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5852</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>8020</v>
+      </c>
+      <c r="D87">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87">
+        <v>255260560</v>
+      </c>
+      <c r="G87">
+        <v>37601</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87">
+        <v>1796365.7250000001</v>
+      </c>
+      <c r="J87">
+        <v>4851845</v>
+      </c>
+      <c r="K87">
+        <v>8789462.9000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5852</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>8020</v>
+      </c>
+      <c r="D88">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88">
+        <v>32361920</v>
+      </c>
+      <c r="G88">
+        <v>36776</v>
+      </c>
+      <c r="H88">
+        <v>126</v>
+      </c>
+      <c r="I88">
+        <v>2092593.8</v>
+      </c>
+      <c r="J88">
+        <v>4851845</v>
+      </c>
+      <c r="K88">
+        <v>9974375.1999999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5852</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>8020</v>
+      </c>
+      <c r="D89">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89">
+        <v>105751720</v>
+      </c>
+      <c r="G89">
+        <v>15161</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>2082868.4</v>
+      </c>
+      <c r="J89">
+        <v>4851845</v>
+      </c>
+      <c r="K89">
+        <v>9935473.5999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5852</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>8020</v>
+      </c>
+      <c r="D90">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90">
+        <v>32362388</v>
+      </c>
+      <c r="G90">
+        <v>37344</v>
+      </c>
+      <c r="H90">
+        <v>126</v>
+      </c>
+      <c r="I90">
+        <v>2079064.1</v>
+      </c>
+      <c r="J90">
+        <v>4851845</v>
+      </c>
+      <c r="K90">
+        <v>9920256.4000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5852</v>
+      </c>
+      <c r="B91" t="s">
         <v>15</v>
       </c>
-      <c r="C55">
+      <c r="C91">
         <v>8020</v>
       </c>
-      <c r="D55">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D91">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
         <v>25</v>
       </c>
-      <c r="F55">
+      <c r="F91">
         <v>32618258</v>
       </c>
-      <c r="G55">
+      <c r="G91">
         <v>36586</v>
       </c>
-      <c r="H55">
+      <c r="H91">
         <v>127</v>
       </c>
-      <c r="I55">
+      <c r="I91">
         <v>2093697.65</v>
       </c>
-      <c r="J55">
+      <c r="J91">
         <v>4851845</v>
       </c>
-      <c r="K55">
+      <c r="K91">
         <v>9978790.5999999996</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K37" xr:uid="{E5390C54-14A9-4FDB-9EFB-D02DCDEC0FC7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K37">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K91">
       <sortCondition ref="C1:C37"/>
     </sortState>
   </autoFilter>
@@ -5373,252 +7023,954 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419F3144-EC4D-414A-B81D-285FDF61317D}">
+  <dimension ref="A3:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>22964</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22962</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2560</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44040</v>
+      </c>
+      <c r="F5" s="2">
+        <v>23528</v>
+      </c>
+      <c r="G5" s="2">
+        <v>58680</v>
+      </c>
+      <c r="H5" s="2">
+        <v>174734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
+        <v>170476</v>
+      </c>
+      <c r="C6" s="2">
+        <v>167240</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12800</v>
+      </c>
+      <c r="E6" s="2">
+        <v>536600</v>
+      </c>
+      <c r="F6" s="2">
+        <v>170270</v>
+      </c>
+      <c r="G6" s="2">
+        <v>730200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1787586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>180</v>
+      </c>
+      <c r="B7" s="2">
+        <v>392582</v>
+      </c>
+      <c r="C7" s="2">
+        <v>387122</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23040</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1251720</v>
+      </c>
+      <c r="F7" s="2">
+        <v>392738</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1943640</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4390842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>340</v>
+      </c>
+      <c r="B8" s="2">
+        <v>758608</v>
+      </c>
+      <c r="C8" s="2">
+        <v>748218</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43520</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2676480</v>
+      </c>
+      <c r="F8" s="2">
+        <v>747994</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4623320</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9598140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>620</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1740780</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1741506</v>
+      </c>
+      <c r="D9" s="2">
+        <v>79360</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7141160</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1741352</v>
+      </c>
+      <c r="G9" s="2">
+        <v>13400680</v>
+      </c>
+      <c r="H9" s="2">
+        <v>25844838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1220</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3481936</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3442998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>156160</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6290320</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3443004</v>
+      </c>
+      <c r="G10" s="2">
+        <v>16511480</v>
+      </c>
+      <c r="H10" s="2">
+        <v>33325898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6215474</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6215604</v>
+      </c>
+      <c r="D11" s="2">
+        <v>258560</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14923760</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6215586</v>
+      </c>
+      <c r="G11" s="2">
+        <v>31887720</v>
+      </c>
+      <c r="H11" s="2">
+        <v>65716704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3020</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10741320</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10645810</v>
+      </c>
+      <c r="D12" s="2">
+        <v>386560</v>
+      </c>
+      <c r="E12" s="2">
+        <v>29487280</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10740992</v>
+      </c>
+      <c r="G12" s="2">
+        <v>65854120</v>
+      </c>
+      <c r="H12" s="2">
+        <v>127856082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3420</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12382150</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12272770</v>
+      </c>
+      <c r="D13" s="2">
+        <v>437760</v>
+      </c>
+      <c r="E13" s="2">
+        <v>30390120</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12272816</v>
+      </c>
+      <c r="G13" s="2">
+        <v>74843280</v>
+      </c>
+      <c r="H13" s="2">
+        <v>142598896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4020</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14681636</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14553090</v>
+      </c>
+      <c r="D14" s="2">
+        <v>514560</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42234120</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14553174</v>
+      </c>
+      <c r="G14" s="2">
+        <v>94992600</v>
+      </c>
+      <c r="H14" s="2">
+        <v>181529180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5020</v>
+      </c>
+      <c r="B15" s="2">
+        <v>18976106</v>
+      </c>
+      <c r="C15" s="2">
+        <v>18975166</v>
+      </c>
+      <c r="D15" s="2">
+        <v>642560</v>
+      </c>
+      <c r="E15" s="2">
+        <v>52007200</v>
+      </c>
+      <c r="F15" s="2">
+        <v>18974826</v>
+      </c>
+      <c r="G15" s="2">
+        <v>139154400</v>
+      </c>
+      <c r="H15" s="2">
+        <v>248730258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6020</v>
+      </c>
+      <c r="B16" s="2">
+        <v>23523498</v>
+      </c>
+      <c r="C16" s="2">
+        <v>23330458</v>
+      </c>
+      <c r="D16" s="2">
+        <v>770560</v>
+      </c>
+      <c r="E16" s="2">
+        <v>74359040</v>
+      </c>
+      <c r="F16" s="2">
+        <v>23330258</v>
+      </c>
+      <c r="G16" s="2">
+        <v>190484840</v>
+      </c>
+      <c r="H16" s="2">
+        <v>335798654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>6620</v>
+      </c>
+      <c r="B17" s="2">
+        <v>26925886</v>
+      </c>
+      <c r="C17" s="2">
+        <v>26714456</v>
+      </c>
+      <c r="D17" s="2">
+        <v>847360</v>
+      </c>
+      <c r="E17" s="2">
+        <v>82750000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>26714768</v>
+      </c>
+      <c r="G17" s="2">
+        <v>215361840</v>
+      </c>
+      <c r="H17" s="2">
+        <v>379314310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>7420</v>
+      </c>
+      <c r="B18" s="2">
+        <v>30652800</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30179548</v>
+      </c>
+      <c r="D18" s="2">
+        <v>949760</v>
+      </c>
+      <c r="E18" s="2">
+        <v>93833320</v>
+      </c>
+      <c r="F18" s="2">
+        <v>30416206</v>
+      </c>
+      <c r="G18" s="2">
+        <v>265873440</v>
+      </c>
+      <c r="H18" s="2">
+        <v>451905074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8020</v>
+      </c>
+      <c r="B19" s="2">
+        <v>32618258</v>
+      </c>
+      <c r="C19" s="2">
+        <v>32362388</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1026560</v>
+      </c>
+      <c r="E19" s="2">
+        <v>105751720</v>
+      </c>
+      <c r="F19" s="2">
+        <v>32361920</v>
+      </c>
+      <c r="G19" s="2">
+        <v>255260560</v>
+      </c>
+      <c r="H19" s="2">
+        <v>459381406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <v>183284474</v>
+      </c>
+      <c r="C20" s="2">
+        <v>181759336</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6151680</v>
+      </c>
+      <c r="E20" s="2">
+        <v>543676880</v>
+      </c>
+      <c r="F20" s="2">
+        <v>182099432</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1370980800</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2467952602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3D6416-D5BE-4C08-894E-DB13ABE6F74A}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>58680</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
+        <v>44040</v>
+      </c>
+      <c r="D2" s="6">
         <v>22964</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="6">
         <v>23528</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="6">
         <v>22962</v>
       </c>
-      <c r="F2" s="2">
-        <v>44040</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G2" s="6">
         <v>2560</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>100</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>730200</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
+        <v>536600</v>
+      </c>
+      <c r="D3" s="6">
         <v>170476</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="6">
         <v>170270</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="6">
         <v>167240</v>
       </c>
-      <c r="F3" s="2">
-        <v>536600</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <v>12800</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>180</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>1943640</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
+        <v>1251720</v>
+      </c>
+      <c r="D4" s="6">
         <v>392582</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="6">
         <v>392738</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="6">
         <v>387122</v>
       </c>
-      <c r="F4" s="2">
-        <v>1251720</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>23040</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>340</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>4623320</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
+        <v>2676480</v>
+      </c>
+      <c r="D5" s="6">
         <v>758608</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="6">
         <v>747994</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="6">
         <v>748218</v>
       </c>
-      <c r="F5" s="2">
-        <v>2676480</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>43520</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>620</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>13400680</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
+        <v>7141160</v>
+      </c>
+      <c r="D6" s="6">
         <v>1740780</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="6">
         <v>1741352</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="6">
         <v>1741506</v>
       </c>
-      <c r="F6" s="2">
-        <v>7141160</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6" s="6">
         <v>79360</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>1220</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>16511480</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
+        <v>6290320</v>
+      </c>
+      <c r="D7" s="6">
         <v>3481936</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="6">
         <v>3443004</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="6">
         <v>3442998</v>
       </c>
-      <c r="F7" s="2">
-        <v>6290320</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <v>156160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>2020</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>31887720</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
+        <v>14923760</v>
+      </c>
+      <c r="D8" s="6">
         <v>6215474</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="6">
         <v>6215586</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="6">
         <v>6215604</v>
       </c>
-      <c r="F8" s="2">
-        <v>14923760</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="G8" s="6">
         <v>258560</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
+        <v>3020</v>
+      </c>
+      <c r="B9" s="7">
+        <v>65854120</v>
+      </c>
+      <c r="C9" s="7">
+        <v>29487280</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10741320</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10740992</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10645810</v>
+      </c>
+      <c r="G9" s="7">
+        <v>386560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3420</v>
+      </c>
+      <c r="B10" s="6">
+        <v>74843280</v>
+      </c>
+      <c r="C10" s="6">
+        <v>30390120</v>
+      </c>
+      <c r="D10" s="6">
+        <v>12382150</v>
+      </c>
+      <c r="E10" s="6">
+        <v>12272816</v>
+      </c>
+      <c r="F10" s="6">
+        <v>12272770</v>
+      </c>
+      <c r="G10" s="6">
+        <v>437760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>4020</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="7">
         <v>94992600</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="7">
+        <v>42234120</v>
+      </c>
+      <c r="D11" s="7">
         <v>14681636</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E11" s="7">
         <v>14553174</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F11" s="7">
         <v>14553090</v>
       </c>
-      <c r="F9" s="2">
-        <v>42234120</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="G11" s="7">
         <v>514560</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>5020</v>
+      </c>
+      <c r="B12" s="5">
+        <v>139154400</v>
+      </c>
+      <c r="C12" s="5">
+        <v>52007200</v>
+      </c>
+      <c r="D12" s="5">
+        <v>18976106</v>
+      </c>
+      <c r="E12" s="5">
+        <v>18974826</v>
+      </c>
+      <c r="F12" s="5">
+        <v>18975166</v>
+      </c>
+      <c r="G12" s="5">
+        <v>642560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6020</v>
+      </c>
+      <c r="B13" s="7">
+        <v>190484840</v>
+      </c>
+      <c r="C13" s="7">
+        <v>74359040</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23523498</v>
+      </c>
+      <c r="E13" s="7">
+        <v>23330258</v>
+      </c>
+      <c r="F13" s="7">
+        <v>23330458</v>
+      </c>
+      <c r="G13" s="7">
+        <v>770560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>6620</v>
+      </c>
+      <c r="B14" s="7">
+        <v>215361840</v>
+      </c>
+      <c r="C14" s="7">
+        <v>82750000</v>
+      </c>
+      <c r="D14" s="7">
+        <v>26925886</v>
+      </c>
+      <c r="E14" s="7">
+        <v>26714768</v>
+      </c>
+      <c r="F14" s="7">
+        <v>26714456</v>
+      </c>
+      <c r="G14" s="7">
+        <v>847360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>7420</v>
+      </c>
+      <c r="B15" s="7">
+        <v>265873440</v>
+      </c>
+      <c r="C15" s="7">
+        <v>93833320</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30652800</v>
+      </c>
+      <c r="E15" s="7">
+        <v>30416206</v>
+      </c>
+      <c r="F15" s="7">
+        <v>30179548</v>
+      </c>
+      <c r="G15" s="7">
+        <v>949760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>8020</v>
       </c>
-      <c r="B10">
+      <c r="B16" s="6">
         <v>255260560</v>
       </c>
-      <c r="C10">
+      <c r="C16" s="6">
+        <v>105751720</v>
+      </c>
+      <c r="D16" s="6">
         <v>32618258</v>
       </c>
-      <c r="D10">
+      <c r="E16" s="6">
         <v>32361920</v>
       </c>
-      <c r="E10">
+      <c r="F16" s="6">
         <v>32362388</v>
       </c>
-      <c r="F10">
-        <v>105751720</v>
-      </c>
-      <c r="G10">
+      <c r="G16" s="6">
         <v>1026560</v>
       </c>
     </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G12" xr:uid="{554F8176-109A-4CA9-88EF-ED4256BD2B13}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+      <sortCondition ref="A1:A12"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
